--- a/premium_rates.xlsx
+++ b/premium_rates.xlsx
@@ -1,37 +1,120 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python64\actuarial-science\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F14AE4-A49F-48D8-8B2F-8B47A315ADE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="premium_rates" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="premium_rates" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>age / Term</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>FEMALE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +129,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,70 +453,1521 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Gender</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>age / Term</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>MALE</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="n">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>30</v>
       </c>
-      <c r="C3" t="n">
-        <v>166263.0973151565</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>FEMALE</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="n">
+      <c r="C3">
+        <v>846282.05128205719</v>
+      </c>
+      <c r="D3">
+        <v>254513.509549854</v>
+      </c>
+      <c r="E3">
+        <v>204483.52445484491</v>
+      </c>
+      <c r="F3">
+        <v>185435.06323477329</v>
+      </c>
+      <c r="G3">
+        <v>175599.04958338459</v>
+      </c>
+      <c r="H3">
+        <v>170044.34220379381</v>
+      </c>
+      <c r="I3">
+        <v>167016.9890888595</v>
+      </c>
+      <c r="J3">
+        <v>165669.4920282409</v>
+      </c>
+      <c r="K3">
+        <v>165518.41661916219</v>
+      </c>
+      <c r="L3">
+        <v>166263.09731515651</v>
+      </c>
+      <c r="M3">
+        <v>167671.65129251141</v>
+      </c>
+      <c r="N3">
+        <v>169575.8379217356</v>
+      </c>
+      <c r="O3">
+        <v>171830.74084515261</v>
+      </c>
+      <c r="P3">
+        <v>174317.2049703791</v>
+      </c>
+      <c r="Q3">
+        <v>176938.21443347339</v>
+      </c>
+      <c r="R3">
+        <v>179616.3060221592</v>
+      </c>
+      <c r="S3">
+        <v>182305.584727301</v>
+      </c>
+      <c r="T3">
+        <v>184975.33191431049</v>
+      </c>
+      <c r="U3">
+        <v>187602.61910841789</v>
+      </c>
+      <c r="V3">
+        <v>190175.7711160586</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>825641.02564097219</v>
+      </c>
+      <c r="D4">
+        <v>248828.6706324486</v>
+      </c>
+      <c r="E4">
+        <v>200598.24245661279</v>
+      </c>
+      <c r="F4">
+        <v>182836.01012350069</v>
+      </c>
+      <c r="G4">
+        <v>174184.54820923021</v>
+      </c>
+      <c r="H4">
+        <v>169762.5429863251</v>
+      </c>
+      <c r="I4">
+        <v>167764.5807707661</v>
+      </c>
+      <c r="J4">
+        <v>167332.59147976729</v>
+      </c>
+      <c r="K4">
+        <v>167996.22519612341</v>
+      </c>
+      <c r="L4">
+        <v>169434.1997868504</v>
+      </c>
+      <c r="M4">
+        <v>171429.810146031</v>
+      </c>
+      <c r="N4">
+        <v>173808.3333428292</v>
+      </c>
+      <c r="O4">
+        <v>176432.25573944519</v>
+      </c>
+      <c r="P4">
+        <v>179193.15076273019</v>
+      </c>
+      <c r="Q4">
+        <v>182006.56478457531</v>
+      </c>
+      <c r="R4">
+        <v>184823.80614394651</v>
+      </c>
+      <c r="S4">
+        <v>187613.07600260389</v>
+      </c>
+      <c r="T4">
+        <v>190351.07647338821</v>
+      </c>
+      <c r="U4">
+        <v>193026.6057920256</v>
+      </c>
+      <c r="V4">
+        <v>195631.46347204669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>809038.4615384182</v>
+      </c>
+      <c r="D5">
+        <v>244842.2312853779</v>
+      </c>
+      <c r="E5">
+        <v>198573.27301921081</v>
+      </c>
+      <c r="F5">
+        <v>182228.8353898662</v>
+      </c>
+      <c r="G5">
+        <v>174830.46509250961</v>
+      </c>
+      <c r="H5">
+        <v>171499.02957862479</v>
+      </c>
+      <c r="I5">
+        <v>170444.35480536791</v>
+      </c>
+      <c r="J5">
+        <v>170836.61605002591</v>
+      </c>
+      <c r="K5">
+        <v>172187.76847968841</v>
+      </c>
+      <c r="L5">
+        <v>174197.90237600409</v>
+      </c>
+      <c r="M5">
+        <v>176645.05148040579</v>
+      </c>
+      <c r="N5">
+        <v>179364.18452654459</v>
+      </c>
+      <c r="O5">
+        <v>182230.4470252037</v>
+      </c>
+      <c r="P5">
+        <v>185149.56619624791</v>
+      </c>
+      <c r="Q5">
+        <v>188068.61772811171</v>
+      </c>
+      <c r="R5">
+        <v>190953.89164441399</v>
+      </c>
+      <c r="S5">
+        <v>193781.18226678349</v>
+      </c>
+      <c r="T5">
+        <v>196539.4483531368</v>
+      </c>
+      <c r="U5">
+        <v>199220.78217944581</v>
+      </c>
+      <c r="V5">
+        <v>201827.82117889871</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>799615.38461538171</v>
+      </c>
+      <c r="D6">
+        <v>243711.39054996491</v>
+      </c>
+      <c r="E6">
+        <v>199154.2713597425</v>
+      </c>
+      <c r="F6">
+        <v>184135.06227837791</v>
+      </c>
+      <c r="G6">
+        <v>177835.06090077051</v>
+      </c>
+      <c r="H6">
+        <v>175429.1095515315</v>
+      </c>
+      <c r="I6">
+        <v>175171.55746317949</v>
+      </c>
+      <c r="J6">
+        <v>176214.87806403189</v>
+      </c>
+      <c r="K6">
+        <v>178097.90612070981</v>
+      </c>
+      <c r="L6">
+        <v>180515.21201194139</v>
+      </c>
+      <c r="M6">
+        <v>183256.12452403791</v>
+      </c>
+      <c r="N6">
+        <v>186169.6990931594</v>
+      </c>
+      <c r="O6">
+        <v>189146.4345268239</v>
+      </c>
+      <c r="P6">
+        <v>192126.2576688393</v>
+      </c>
+      <c r="Q6">
+        <v>195071.78193000401</v>
+      </c>
+      <c r="R6">
+        <v>197956.7250505288</v>
+      </c>
+      <c r="S6">
+        <v>200769.46075754339</v>
+      </c>
+      <c r="T6">
+        <v>203501.81714074739</v>
+      </c>
+      <c r="U6">
+        <v>206157.0133018698</v>
+      </c>
+      <c r="V6">
+        <v>208735.05872882379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>801858.97435895889</v>
+      </c>
+      <c r="D7">
+        <v>246334.44295784741</v>
+      </c>
+      <c r="E7">
+        <v>202837.36145483729</v>
+      </c>
+      <c r="F7">
+        <v>188758.81144052951</v>
+      </c>
+      <c r="G7">
+        <v>183267.9896637715</v>
+      </c>
+      <c r="H7">
+        <v>181568.00751170539</v>
+      </c>
+      <c r="I7">
+        <v>181878.74421071811</v>
+      </c>
+      <c r="J7">
+        <v>183379.1830159993</v>
+      </c>
+      <c r="K7">
+        <v>185597.95781398471</v>
+      </c>
+      <c r="L7">
+        <v>188240.45138026809</v>
+      </c>
+      <c r="M7">
+        <v>191110.2074750989</v>
+      </c>
+      <c r="N7">
+        <v>194071.96090828179</v>
+      </c>
+      <c r="O7">
+        <v>197052.74504599141</v>
+      </c>
+      <c r="P7">
+        <v>200008.0232828203</v>
+      </c>
+      <c r="Q7">
+        <v>202907.16818235739</v>
+      </c>
+      <c r="R7">
+        <v>205736.4966785296</v>
+      </c>
+      <c r="S7">
+        <v>208486.504076032</v>
+      </c>
+      <c r="T7">
+        <v>211160.27360053739</v>
+      </c>
+      <c r="U7">
+        <v>213757.46137081011</v>
+      </c>
+      <c r="V7">
+        <v>216283.62821442439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>817115.38461538963</v>
+      </c>
+      <c r="D8">
+        <v>252920.73445210181</v>
+      </c>
+      <c r="E8">
+        <v>209525.43453946541</v>
+      </c>
+      <c r="F8">
+        <v>195913.08927617079</v>
+      </c>
+      <c r="G8">
+        <v>190930.89676008481</v>
+      </c>
+      <c r="H8">
+        <v>189654.44385738319</v>
+      </c>
+      <c r="I8">
+        <v>190308.16193360841</v>
+      </c>
+      <c r="J8">
+        <v>192045.38028517901</v>
+      </c>
+      <c r="K8">
+        <v>194400.5889455055</v>
+      </c>
+      <c r="L8">
+        <v>197091.12482606049</v>
+      </c>
+      <c r="M8">
+        <v>199935.12782760689</v>
+      </c>
+      <c r="N8">
+        <v>202835.66749563781</v>
+      </c>
+      <c r="O8">
+        <v>205734.56680593581</v>
+      </c>
+      <c r="P8">
+        <v>208592.75756845571</v>
+      </c>
+      <c r="Q8">
+        <v>211391.8853127317</v>
+      </c>
+      <c r="R8">
+        <v>214119.2820006765</v>
+      </c>
+      <c r="S8">
+        <v>216776.66909017481</v>
+      </c>
+      <c r="T8">
+        <v>219362.38207029321</v>
+      </c>
+      <c r="U8">
+        <v>221881.41298898801</v>
+      </c>
+      <c r="V8">
+        <v>224337.7618663992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>845384.61538457451</v>
+      </c>
+      <c r="D9">
+        <v>263069.20648067287</v>
+      </c>
+      <c r="E9">
+        <v>218819.6854935225</v>
+      </c>
+      <c r="F9">
+        <v>205247.54872337769</v>
+      </c>
+      <c r="G9">
+        <v>200427.8387800905</v>
+      </c>
+      <c r="H9">
+        <v>199320.58761466859</v>
+      </c>
+      <c r="I9">
+        <v>200076.5946467855</v>
+      </c>
+      <c r="J9">
+        <v>201838.61391178929</v>
+      </c>
+      <c r="K9">
+        <v>204145.6267338375</v>
+      </c>
+      <c r="L9">
+        <v>206725.8068027884</v>
+      </c>
+      <c r="M9">
+        <v>209436.38321011409</v>
+      </c>
+      <c r="N9">
+        <v>212193.33753308089</v>
+      </c>
+      <c r="O9">
+        <v>214941.82014177801</v>
+      </c>
+      <c r="P9">
+        <v>217654.2676013161</v>
+      </c>
+      <c r="Q9">
+        <v>220311.8034154613</v>
+      </c>
+      <c r="R9">
+        <v>222912.78651667861</v>
+      </c>
+      <c r="S9">
+        <v>225452.72914328019</v>
+      </c>
+      <c r="T9">
+        <v>227934.99199413651</v>
+      </c>
+      <c r="U9">
+        <v>230362.2442003313</v>
+      </c>
+      <c r="V9">
+        <v>232736.6478351987</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>883974.35897434165</v>
+      </c>
+      <c r="D10">
+        <v>276027.19379631372</v>
+      </c>
+      <c r="E10">
+        <v>230198.086102464</v>
+      </c>
+      <c r="F10">
+        <v>216230.54225349679</v>
+      </c>
+      <c r="G10">
+        <v>211293.094568431</v>
+      </c>
+      <c r="H10">
+        <v>210099.2223857147</v>
+      </c>
+      <c r="I10">
+        <v>210738.8652800947</v>
+      </c>
+      <c r="J10">
+        <v>212339.31463676371</v>
+      </c>
+      <c r="K10">
+        <v>214441.15498304629</v>
+      </c>
+      <c r="L10">
+        <v>216810.31221499399</v>
+      </c>
+      <c r="M10">
+        <v>219313.25924434801</v>
+      </c>
+      <c r="N10">
+        <v>221865.9649895879</v>
+      </c>
+      <c r="O10">
+        <v>224423.74076519461</v>
+      </c>
+      <c r="P10">
+        <v>226956.4429760208</v>
+      </c>
+      <c r="Q10">
+        <v>229455.84283305929</v>
+      </c>
+      <c r="R10">
+        <v>231912.3233420763</v>
+      </c>
+      <c r="S10">
+        <v>234326.02818963601</v>
+      </c>
+      <c r="T10">
+        <v>236697.11405254621</v>
+      </c>
+      <c r="U10">
+        <v>239025.75149007791</v>
+      </c>
+      <c r="V10">
+        <v>242172.1303301334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>930641.02564105508</v>
+      </c>
+      <c r="D11">
+        <v>291245.59814150701</v>
+      </c>
+      <c r="E11">
+        <v>243109.30795323581</v>
+      </c>
+      <c r="F11">
+        <v>228405.0998046142</v>
+      </c>
+      <c r="G11">
+        <v>223065.77135711</v>
+      </c>
+      <c r="H11">
+        <v>221555.11604514741</v>
+      </c>
+      <c r="I11">
+        <v>221888.61148617929</v>
+      </c>
+      <c r="J11">
+        <v>223171.61639136091</v>
+      </c>
+      <c r="K11">
+        <v>224975.76895649749</v>
+      </c>
+      <c r="L11">
+        <v>227069.03298629291</v>
+      </c>
+      <c r="M11">
+        <v>229312.44326256489</v>
+      </c>
+      <c r="N11">
+        <v>231629.80829458771</v>
+      </c>
+      <c r="O11">
+        <v>233971.02338587979</v>
+      </c>
+      <c r="P11">
+        <v>236315.93224137049</v>
+      </c>
+      <c r="Q11">
+        <v>238646.15903015289</v>
+      </c>
+      <c r="R11">
+        <v>240956.21234169739</v>
+      </c>
+      <c r="S11">
+        <v>243242.00313021749</v>
+      </c>
+      <c r="T11">
+        <v>245500.44127279779</v>
+      </c>
+      <c r="U11">
+        <v>248658.19330262579</v>
+      </c>
+      <c r="V11">
+        <v>252903.2596754168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>984038.46153848013</v>
+      </c>
+      <c r="D12">
+        <v>308047.33240477712</v>
+      </c>
+      <c r="E12">
+        <v>257073.01685564549</v>
+      </c>
+      <c r="F12">
+        <v>241292.54922669</v>
+      </c>
+      <c r="G12">
+        <v>235303.55803703491</v>
+      </c>
+      <c r="H12">
+        <v>233282.29908442151</v>
+      </c>
+      <c r="I12">
+        <v>233155.91784900319</v>
+      </c>
+      <c r="J12">
+        <v>234039.85371814651</v>
+      </c>
+      <c r="K12">
+        <v>235493.1535932096</v>
+      </c>
+      <c r="L12">
+        <v>237269.11422824211</v>
+      </c>
+      <c r="M12">
+        <v>239232.594644116</v>
+      </c>
+      <c r="N12">
+        <v>241297.96716910819</v>
+      </c>
+      <c r="O12">
+        <v>243424.02216050029</v>
+      </c>
+      <c r="P12">
+        <v>245577.7476050001</v>
+      </c>
+      <c r="Q12">
+        <v>247744.24161235831</v>
+      </c>
+      <c r="R12">
+        <v>249912.57184935751</v>
+      </c>
+      <c r="S12">
+        <v>252074.55377264111</v>
+      </c>
+      <c r="T12">
+        <v>255230.5013748848</v>
+      </c>
+      <c r="U12">
+        <v>259572.09561313639</v>
+      </c>
+      <c r="V12">
+        <v>265043.88145483268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>1041025.641025667</v>
+      </c>
+      <c r="D13">
+        <v>325743.47758000297</v>
+      </c>
+      <c r="E13">
+        <v>271496.03898023412</v>
+      </c>
+      <c r="F13">
+        <v>254382.81251765229</v>
+      </c>
+      <c r="G13">
+        <v>247557.43097405901</v>
+      </c>
+      <c r="H13">
+        <v>244883.20098960761</v>
+      </c>
+      <c r="I13">
+        <v>244235.29266741849</v>
+      </c>
+      <c r="J13">
+        <v>244685.4912870996</v>
+      </c>
+      <c r="K13">
+        <v>245761.867537035</v>
+      </c>
+      <c r="L13">
+        <v>247214.67346768899</v>
+      </c>
+      <c r="M13">
+        <v>248893.57359253819</v>
+      </c>
+      <c r="N13">
+        <v>250720.15750515179</v>
+      </c>
+      <c r="O13">
+        <v>252636.98422633309</v>
+      </c>
+      <c r="P13">
+        <v>254613.71739274519</v>
+      </c>
+      <c r="Q13">
+        <v>256628.61872000669</v>
+      </c>
+      <c r="R13">
+        <v>258665.72108416789</v>
+      </c>
+      <c r="S13">
+        <v>261807.1883534448</v>
+      </c>
+      <c r="T13">
+        <v>266246.27362297568</v>
+      </c>
+      <c r="U13">
+        <v>271910.1605323996</v>
+      </c>
+      <c r="V13">
+        <v>278756.52276315237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>30</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C15">
+        <v>688333.33333336143</v>
+      </c>
+      <c r="D15">
+        <v>204270.393803663</v>
+      </c>
+      <c r="E15">
+        <v>161941.24147472321</v>
+      </c>
+      <c r="F15">
+        <v>144913.88004684151</v>
+      </c>
+      <c r="G15">
+        <v>135403.09951145429</v>
+      </c>
+      <c r="H15">
+        <v>129416.8958284106</v>
+      </c>
+      <c r="I15">
+        <v>125523.2752814158</v>
+      </c>
+      <c r="J15">
+        <v>123048.6975886281</v>
+      </c>
+      <c r="K15">
+        <v>121607.82089246809</v>
+      </c>
+      <c r="L15">
         <v>120963.0455202882</v>
+      </c>
+      <c r="M15">
+        <v>120940.02373575341</v>
+      </c>
+      <c r="N15">
+        <v>121412.3975844535</v>
+      </c>
+      <c r="O15">
+        <v>122272.5811821258</v>
+      </c>
+      <c r="P15">
+        <v>123425.9784524116</v>
+      </c>
+      <c r="Q15">
+        <v>124800.27225493301</v>
+      </c>
+      <c r="R15">
+        <v>126903.7036560431</v>
+      </c>
+      <c r="S15">
+        <v>129531.70428320739</v>
+      </c>
+      <c r="T15">
+        <v>132649.43483093969</v>
+      </c>
+      <c r="U15">
+        <v>136234.7075249801</v>
+      </c>
+      <c r="V15">
+        <v>140271.235607218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>653333.33333335246</v>
+      </c>
+      <c r="D16">
+        <v>194148.02299376079</v>
+      </c>
+      <c r="E16">
+        <v>154364.34881217391</v>
+      </c>
+      <c r="F16">
+        <v>138757.08367727659</v>
+      </c>
+      <c r="G16">
+        <v>130429.9285349995</v>
+      </c>
+      <c r="H16">
+        <v>125506.1869500098</v>
+      </c>
+      <c r="I16">
+        <v>122571.98984867139</v>
+      </c>
+      <c r="J16">
+        <v>120953.3763989514</v>
+      </c>
+      <c r="K16">
+        <v>120282.9196918097</v>
+      </c>
+      <c r="L16">
+        <v>120319.2383732928</v>
+      </c>
+      <c r="M16">
+        <v>120899.6866422568</v>
+      </c>
+      <c r="N16">
+        <v>121894.5326052804</v>
+      </c>
+      <c r="O16">
+        <v>123194.9116848907</v>
+      </c>
+      <c r="P16">
+        <v>124720.15199138271</v>
+      </c>
+      <c r="Q16">
+        <v>127027.0008577343</v>
+      </c>
+      <c r="R16">
+        <v>129885.7657339531</v>
+      </c>
+      <c r="S16">
+        <v>133256.1165342165</v>
+      </c>
+      <c r="T16">
+        <v>137112.55272074751</v>
+      </c>
+      <c r="U16">
+        <v>141436.6030613691</v>
+      </c>
+      <c r="V16">
+        <v>146217.28108297591</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>621923.07692309236</v>
+      </c>
+      <c r="D17">
+        <v>185520.59535663229</v>
+      </c>
+      <c r="E17">
+        <v>148322.7010090214</v>
+      </c>
+      <c r="F17">
+        <v>134269.66444100111</v>
+      </c>
+      <c r="G17">
+        <v>127178.3615149557</v>
+      </c>
+      <c r="H17">
+        <v>123307.03747012639</v>
+      </c>
+      <c r="I17">
+        <v>121279.3813601475</v>
+      </c>
+      <c r="J17">
+        <v>120459.1488615519</v>
+      </c>
+      <c r="K17">
+        <v>120482.25121835239</v>
+      </c>
+      <c r="L17">
+        <v>121125.0364982777</v>
+      </c>
+      <c r="M17">
+        <v>122223.3923819873</v>
+      </c>
+      <c r="N17">
+        <v>123647.7305489306</v>
+      </c>
+      <c r="O17">
+        <v>125305.6579988244</v>
+      </c>
+      <c r="P17">
+        <v>127808.9447322638</v>
+      </c>
+      <c r="Q17">
+        <v>130896.8446189512</v>
+      </c>
+      <c r="R17">
+        <v>134521.80602630621</v>
+      </c>
+      <c r="S17">
+        <v>138653.98728396211</v>
+      </c>
+      <c r="T17">
+        <v>143272.07902484509</v>
+      </c>
+      <c r="U17">
+        <v>148363.42982840809</v>
+      </c>
+      <c r="V17">
+        <v>153923.8263382182</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>596794.87179482402</v>
+      </c>
+      <c r="D18">
+        <v>179207.66424051209</v>
+      </c>
+      <c r="E18">
+        <v>144446.18753693701</v>
+      </c>
+      <c r="F18">
+        <v>131868.26096527561</v>
+      </c>
+      <c r="G18">
+        <v>125918.3402054123</v>
+      </c>
+      <c r="H18">
+        <v>122985.3478673629</v>
+      </c>
+      <c r="I18">
+        <v>121764.06193000211</v>
+      </c>
+      <c r="J18">
+        <v>121631.1668039318</v>
+      </c>
+      <c r="K18">
+        <v>122247.3300380966</v>
+      </c>
+      <c r="L18">
+        <v>123389.0016837032</v>
+      </c>
+      <c r="M18">
+        <v>124893.3333288329</v>
+      </c>
+      <c r="N18">
+        <v>126649.7680222038</v>
+      </c>
+      <c r="O18">
+        <v>129331.9882163499</v>
+      </c>
+      <c r="P18">
+        <v>132639.68801044699</v>
+      </c>
+      <c r="Q18">
+        <v>136515.40270388671</v>
+      </c>
+      <c r="R18">
+        <v>140923.35255273481</v>
+      </c>
+      <c r="S18">
+        <v>145838.3780605564</v>
+      </c>
+      <c r="T18">
+        <v>151245.52849719219</v>
+      </c>
+      <c r="U18">
+        <v>157139.4582287021</v>
+      </c>
+      <c r="V18">
+        <v>163520.94117579411</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>580641.02564098069</v>
+      </c>
+      <c r="D19">
+        <v>175961.7944762714</v>
+      </c>
+      <c r="E19">
+        <v>143114.84763494451</v>
+      </c>
+      <c r="F19">
+        <v>131747.06695039381</v>
+      </c>
+      <c r="G19">
+        <v>126729.4249938733</v>
+      </c>
+      <c r="H19">
+        <v>124578.4078637882</v>
+      </c>
+      <c r="I19">
+        <v>124011.75636430729</v>
+      </c>
+      <c r="J19">
+        <v>124437.42491239239</v>
+      </c>
+      <c r="K19">
+        <v>125516.1488331154</v>
+      </c>
+      <c r="L19">
+        <v>127025.75948029821</v>
+      </c>
+      <c r="M19">
+        <v>128824.67925847349</v>
+      </c>
+      <c r="N19">
+        <v>131654.85801951599</v>
+      </c>
+      <c r="O19">
+        <v>135163.76739915821</v>
+      </c>
+      <c r="P19">
+        <v>139279.76770910021</v>
+      </c>
+      <c r="Q19">
+        <v>143958.64860483151</v>
+      </c>
+      <c r="R19">
+        <v>149169.84470534499</v>
+      </c>
+      <c r="S19">
+        <v>154895.1325616932</v>
+      </c>
+      <c r="T19">
+        <v>161127.43045734809</v>
+      </c>
+      <c r="U19">
+        <v>167866.68195731691</v>
+      </c>
+      <c r="V19">
+        <v>175114.25793224841</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>35</v>
+      </c>
+      <c r="C20">
+        <v>575705.1282051513</v>
+      </c>
+      <c r="D20">
+        <v>176064.47242967729</v>
+      </c>
+      <c r="E20">
+        <v>144377.5883087668</v>
+      </c>
+      <c r="F20">
+        <v>133844.90242855789</v>
+      </c>
+      <c r="G20">
+        <v>129528.54995740519</v>
+      </c>
+      <c r="H20">
+        <v>127961.69571671649</v>
+      </c>
+      <c r="I20">
+        <v>127892.97487402189</v>
+      </c>
+      <c r="J20">
+        <v>128725.4937189458</v>
+      </c>
+      <c r="K20">
+        <v>130119.0278675188</v>
+      </c>
+      <c r="L20">
+        <v>131874.00065608681</v>
+      </c>
+      <c r="M20">
+        <v>134804.08088847631</v>
+      </c>
+      <c r="N20">
+        <v>138484.88094575831</v>
+      </c>
+      <c r="O20">
+        <v>142823.7110432068</v>
+      </c>
+      <c r="P20">
+        <v>147764.02065341701</v>
+      </c>
+      <c r="Q20">
+        <v>153267.46390023769</v>
+      </c>
+      <c r="R20">
+        <v>159311.0835184046</v>
+      </c>
+      <c r="S20">
+        <v>165885.15965020171</v>
+      </c>
+      <c r="T20">
+        <v>172988.22655636491</v>
+      </c>
+      <c r="U20">
+        <v>180620.74368019609</v>
+      </c>
+      <c r="V20">
+        <v>188789.25719033359</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>581538.46153843484</v>
+      </c>
+      <c r="D21">
+        <v>179245.19916257041</v>
+      </c>
+      <c r="E21">
+        <v>147943.10534847551</v>
+      </c>
+      <c r="F21">
+        <v>137910.36714163821</v>
+      </c>
+      <c r="G21">
+        <v>134049.63033046111</v>
+      </c>
+      <c r="H21">
+        <v>132888.17933798171</v>
+      </c>
+      <c r="I21">
+        <v>133150.57025649291</v>
+      </c>
+      <c r="J21">
+        <v>134230.98520888179</v>
+      </c>
+      <c r="K21">
+        <v>135811.14255838361</v>
+      </c>
+      <c r="L21">
+        <v>138770.8040096722</v>
+      </c>
+      <c r="M21">
+        <v>142581.76401790199</v>
+      </c>
+      <c r="N21">
+        <v>147118.92037497091</v>
+      </c>
+      <c r="O21">
+        <v>152307.19005007809</v>
+      </c>
+      <c r="P21">
+        <v>158096.83184456459</v>
+      </c>
+      <c r="Q21">
+        <v>164457.9968362239</v>
+      </c>
+      <c r="R21">
+        <v>171377.02267990389</v>
+      </c>
+      <c r="S21">
+        <v>178850.2128354575</v>
+      </c>
+      <c r="T21">
+        <v>186876.54992283639</v>
+      </c>
+      <c r="U21">
+        <v>195461.99848008869</v>
+      </c>
+      <c r="V21">
+        <v>204619.07166677559</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>37</v>
+      </c>
+      <c r="C22">
+        <v>596794.87179484812</v>
+      </c>
+      <c r="D22">
+        <v>185027.306549979</v>
+      </c>
+      <c r="E22">
+        <v>153477.236378684</v>
+      </c>
+      <c r="F22">
+        <v>143614.524030865</v>
+      </c>
+      <c r="G22">
+        <v>140001.9472822072</v>
+      </c>
+      <c r="H22">
+        <v>139062.56237508709</v>
+      </c>
+      <c r="I22">
+        <v>139486.19581085749</v>
+      </c>
+      <c r="J22">
+        <v>140682.4688553981</v>
+      </c>
+      <c r="K22">
+        <v>143564.4601949059</v>
+      </c>
+      <c r="L22">
+        <v>147444.2557500308</v>
+      </c>
+      <c r="M22">
+        <v>152144.5216977426</v>
+      </c>
+      <c r="N22">
+        <v>157561.40693996879</v>
+      </c>
+      <c r="O22">
+        <v>163628.0800202252</v>
+      </c>
+      <c r="P22">
+        <v>170304.52576465011</v>
+      </c>
+      <c r="Q22">
+        <v>177571.21426437059</v>
+      </c>
+      <c r="R22">
+        <v>185421.0353660328</v>
+      </c>
+      <c r="S22">
+        <v>193850.70535689109</v>
+      </c>
+      <c r="T22">
+        <v>202865.11575877841</v>
+      </c>
+      <c r="U22">
+        <v>212476.59269949311</v>
+      </c>
+      <c r="V22">
+        <v>222698.5759209246</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>38</v>
+      </c>
+      <c r="C23">
+        <v>619679.48717947048</v>
+      </c>
+      <c r="D23">
+        <v>192998.29063618771</v>
+      </c>
+      <c r="E23">
+        <v>160610.38437315889</v>
+      </c>
+      <c r="F23">
+        <v>150651.30755967941</v>
+      </c>
+      <c r="G23">
+        <v>147077.08080416411</v>
+      </c>
+      <c r="H23">
+        <v>146175.01829594589</v>
+      </c>
+      <c r="I23">
+        <v>146623.61395062099</v>
+      </c>
+      <c r="J23">
+        <v>149251.54329801889</v>
+      </c>
+      <c r="K23">
+        <v>153103.40523090231</v>
+      </c>
+      <c r="L23">
+        <v>157912.3268352598</v>
+      </c>
+      <c r="M23">
+        <v>163527.6620056254</v>
+      </c>
+      <c r="N23">
+        <v>169856.00939827989</v>
+      </c>
+      <c r="O23">
+        <v>176841.9678970305</v>
+      </c>
+      <c r="P23">
+        <v>184457.16785470059</v>
+      </c>
+      <c r="Q23">
+        <v>192689.30849179041</v>
+      </c>
+      <c r="R23">
+        <v>201531.69080626039</v>
+      </c>
+      <c r="S23">
+        <v>210987.42712766671</v>
+      </c>
+      <c r="T23">
+        <v>221068.23021406689</v>
+      </c>
+      <c r="U23">
+        <v>231787.32844445261</v>
+      </c>
+      <c r="V23">
+        <v>243160.29793769799</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>39</v>
+      </c>
+      <c r="C24">
+        <v>649294.87179490714</v>
+      </c>
+      <c r="D24">
+        <v>202751.3601437789</v>
+      </c>
+      <c r="E24">
+        <v>169047.02266514971</v>
+      </c>
+      <c r="F24">
+        <v>158718.8511373564</v>
+      </c>
+      <c r="G24">
+        <v>154969.8924922439</v>
+      </c>
+      <c r="H24">
+        <v>153960.47731196869</v>
+      </c>
+      <c r="I24">
+        <v>156014.4865681504</v>
+      </c>
+      <c r="J24">
+        <v>159671.36389558259</v>
+      </c>
+      <c r="K24">
+        <v>164496.8657312397</v>
+      </c>
+      <c r="L24">
+        <v>170258.96050934031</v>
+      </c>
+      <c r="M24">
+        <v>176820.66206191311</v>
+      </c>
+      <c r="N24">
+        <v>184102.26815487861</v>
+      </c>
+      <c r="O24">
+        <v>192061.669563759</v>
+      </c>
+      <c r="P24">
+        <v>200678.52784693299</v>
+      </c>
+      <c r="Q24">
+        <v>209940.94497458221</v>
+      </c>
+      <c r="R24">
+        <v>219849.16849223629</v>
+      </c>
+      <c r="S24">
+        <v>230413.63836565221</v>
+      </c>
+      <c r="T24">
+        <v>241646.92438401701</v>
+      </c>
+      <c r="U24">
+        <v>253564.4759417352</v>
+      </c>
+      <c r="V24">
+        <v>266182.04395417642</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <v>683846.1538461434</v>
+      </c>
+      <c r="D25">
+        <v>213874.04394209449</v>
+      </c>
+      <c r="E25">
+        <v>178417.59451839881</v>
+      </c>
+      <c r="F25">
+        <v>167463.5231156784</v>
+      </c>
+      <c r="G25">
+        <v>163388.28060415341</v>
+      </c>
+      <c r="H25">
+        <v>164223.6768365539</v>
+      </c>
+      <c r="I25">
+        <v>167372.94639985589</v>
+      </c>
+      <c r="J25">
+        <v>172049.21506666549</v>
+      </c>
+      <c r="K25">
+        <v>177865.4437468485</v>
+      </c>
+      <c r="L25">
+        <v>184607.7680146608</v>
+      </c>
+      <c r="M25">
+        <v>192155.7752163707</v>
+      </c>
+      <c r="N25">
+        <v>200444.98211896181</v>
+      </c>
+      <c r="O25">
+        <v>209442.1637685177</v>
+      </c>
+      <c r="P25">
+        <v>219127.28772817049</v>
+      </c>
+      <c r="Q25">
+        <v>229495.97277272641</v>
+      </c>
+      <c r="R25">
+        <v>240556.31197840109</v>
+      </c>
+      <c r="S25">
+        <v>252319.49723334829</v>
+      </c>
+      <c r="T25">
+        <v>264800.37560347607</v>
+      </c>
+      <c r="U25">
+        <v>278014.48353721708</v>
+      </c>
+      <c r="V25">
+        <v>291986.69705091597</v>
       </c>
     </row>
   </sheetData>
